--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846D85B-0442-418E-A7D7-2CDE29B215B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4CDD1-B2A3-4ECB-94EC-C3F6436BAAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="424">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2175,6 +2175,14 @@
 2:分紅
 3:利變
 4:OIU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND DataYM =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3326,8 +3334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -5041,18 +5049,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD7 A57:XFD1048576 A56:G56 I56:XFD56 A27:XFD27 A26:F26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44 A41:XFD41 A40:D40 F40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:F50 B52 D52:F52 B53 D53:F53 B54 D54:XFD54 D55:XFD55 A17:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 D1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:F35 A29:XFD32 A28:D28 F28 H28:XFD28 A16:F16 H16:XFD16 A34:F34 H34:XFD34 A33:F33 H33:XFD33 H40:XFD40 A43:XFD43 A42:F42 H42:XFD42 H50:XFD50 H52:XFD52 H53:XFD53" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD7 A57:XFD1048576 A56:G56 I56:XFD56 A27:XFD27 A26:F26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44 A41:XFD41 A40:D40 F40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:F50 B52 D52:F52 B53 D53:F53 B54 D54:XFD54 D55:XFD55 A17:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 E1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:F35 A29:XFD32 A28:D28 F28 H28:XFD28 A16:F16 H16:XFD16 A34:F34 H34:XFD34 A33:F33 H33:XFD33 H40:XFD40 A43:XFD43 A42:F42 H42:XFD42 H50:XFD50 H52:XFD52 H53:XFD53" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5072,6 +5080,14 @@
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4CDD1-B2A3-4ECB-94EC-C3F6436BAAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971E2DF-A243-406E-8B06-8276C183424F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="425">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2184,6 +2184,9 @@
   <si>
     <t>CustNo = ,AND FacmNo = ,AND DataYM =</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -2671,11 +2674,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2684,9 +2687,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2696,13 +2696,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2711,7 +2711,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2726,10 +2726,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2744,19 +2741,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2766,36 +2757,36 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
@@ -2821,37 +2812,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2892,23 +2883,23 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2944,9 +2935,6 @@
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2956,10 +2944,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2972,13 +2957,10 @@
     <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -3012,9 +2994,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3052,9 +3034,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3087,26 +3069,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3139,26 +3104,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3334,1706 +3282,1706 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="5" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="64.21875" style="88" customWidth="1"/>
-    <col min="9" max="16384" width="72.88671875" style="4"/>
+    <col min="7" max="7" width="48.33203125" style="81" customWidth="1"/>
+    <col min="8" max="8" width="64.21875" style="82" customWidth="1"/>
+    <col min="9" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="74" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
-      <c r="A9" s="21">
+    <row r="9" spans="1:8" s="6" customFormat="1">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>6</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="89" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="83" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
-      <c r="A10" s="21">
+    <row r="10" spans="1:8" s="6" customFormat="1">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>7</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="89" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="83" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="84" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="83" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>3</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="89" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="83" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>7</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="88" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="82" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>3</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="89" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="83" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>11</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="88" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="82" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="84" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="82" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>8</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="84" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="82" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>8</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="89" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="83" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1">
-      <c r="A19" s="21">
+    <row r="19" spans="1:8">
+      <c r="A19" s="19">
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="19">
         <v>8</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="88" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="82" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>8</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="89" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="83" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>16</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="G21" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="82" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>16</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>2</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="89" t="s">
+      <c r="G22" s="79"/>
+      <c r="H22" s="83" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>16</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="19">
         <v>2</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="88" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="82" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="21">
+      <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>16</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>2</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="89" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="83" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45">
-      <c r="A25" s="21">
+      <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>16</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>2</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="88" t="s">
+      <c r="H25" s="82" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="68.400000000000006">
-      <c r="A26" s="21">
+      <c r="A26" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>16</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="86" t="s">
         <v>411</v>
       </c>
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="84" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="64.8">
-      <c r="A27" s="21">
+      <c r="A27" s="19">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>8</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>6</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="83" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32.4">
-      <c r="A28" s="21">
+      <c r="A28" s="19">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>4</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="86" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="80" t="s">
         <v>409</v>
       </c>
-      <c r="H28" s="89" t="s">
+      <c r="H28" s="83" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="21">
+      <c r="A29" s="19">
         <v>21</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>8</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="86" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="89" t="s">
+      <c r="H29" s="83" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="21">
+      <c r="A30" s="19">
         <v>22</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>8</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="86" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="89" t="s">
+      <c r="H30" s="83" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="21">
+      <c r="A31" s="19">
         <v>23</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>16</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
         <v>2</v>
       </c>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="89" t="s">
+      <c r="H31" s="83" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4">
-      <c r="A32" s="21">
+      <c r="A32" s="19">
         <v>24</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>3</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="84" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="88" t="s">
+      <c r="H32" s="82" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="64.8">
-      <c r="A33" s="21">
+      <c r="A33" s="19">
         <v>25</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>8</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <v>6</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="H33" s="88" t="s">
+      <c r="H33" s="82" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="97.2">
-      <c r="A34" s="21">
+      <c r="A34" s="19">
         <v>26</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>1</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="84" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="H34" s="88" t="s">
+      <c r="H34" s="82" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="105">
-      <c r="A35" s="21">
+      <c r="A35" s="19">
         <v>27</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="84" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="H35" s="88" t="s">
+      <c r="H35" s="82" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="97.2">
-      <c r="A36" s="21">
+      <c r="A36" s="19">
         <v>28</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>2</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="84" t="s">
+      <c r="F36" s="19"/>
+      <c r="G36" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="H36" s="88" t="s">
+      <c r="H36" s="82" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="97.2">
-      <c r="A37" s="21">
+      <c r="A37" s="19">
         <v>29</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <v>2</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="84" t="s">
+      <c r="F37" s="19"/>
+      <c r="G37" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="H37" s="88" t="s">
+      <c r="H37" s="82" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="21">
+      <c r="A38" s="19">
         <v>30</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>6</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="88" t="s">
+      <c r="F38" s="19"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="82" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="21">
+      <c r="A39" s="19">
         <v>31</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>2</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="84" t="s">
+      <c r="F39" s="19"/>
+      <c r="G39" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="88" t="s">
+      <c r="H39" s="82" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="162">
-      <c r="A40" s="21">
+    <row r="40" spans="1:8" ht="162">
+      <c r="A40" s="19">
         <v>32</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="19">
         <v>3</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="85" t="s">
+      <c r="F40" s="19"/>
+      <c r="G40" s="79" t="s">
         <v>415</v>
       </c>
-      <c r="H40" s="90" t="s">
+      <c r="H40" s="82" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="21">
+      <c r="A41" s="19">
         <v>33</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <v>5</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="88" t="s">
+      <c r="F41" s="19"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="82" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="81">
-      <c r="A42" s="21">
+      <c r="A42" s="19">
         <v>34</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>1</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="84" t="s">
+      <c r="F42" s="19"/>
+      <c r="G42" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="H42" s="88" t="s">
+      <c r="H42" s="82" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1">
-      <c r="A43" s="21">
+    <row r="43" spans="1:8">
+      <c r="A43" s="19">
         <v>35</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="19">
         <v>1</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="90" t="s">
+      <c r="F43" s="19"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="82" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A44" s="21">
+    <row r="44" spans="1:8" ht="32.4">
+      <c r="A44" s="19">
         <v>36</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="19">
         <v>2</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="85" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="79" t="s">
         <v>417</v>
       </c>
-      <c r="H44" s="88" t="s">
+      <c r="H44" s="82" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1">
-      <c r="A45" s="21">
+    <row r="45" spans="1:8">
+      <c r="A45" s="19">
         <v>37</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="19">
         <v>16</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="19">
         <v>2</v>
       </c>
-      <c r="G45" s="85"/>
-      <c r="H45" s="88" t="s">
+      <c r="G45" s="79"/>
+      <c r="H45" s="82" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="21">
+      <c r="A46" s="19">
         <v>38</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>8</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="88" t="s">
+      <c r="F46" s="19"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="82" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="21">
+      <c r="A47" s="19">
         <v>39</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
         <v>3</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="88" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="82" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45">
-      <c r="A48" s="21">
+      <c r="A48" s="19">
         <v>40</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="19">
         <v>16</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="19">
         <v>2</v>
       </c>
-      <c r="G48" s="84"/>
-      <c r="H48" s="88" t="s">
+      <c r="G48" s="79"/>
+      <c r="H48" s="82" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="64.8">
-      <c r="A49" s="21">
+      <c r="A49" s="19">
         <v>41</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="19">
         <v>1</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="84" t="s">
+      <c r="F49" s="19"/>
+      <c r="G49" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="H49" s="88" t="s">
+      <c r="H49" s="82" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="32.4">
-      <c r="A50" s="21">
+      <c r="A50" s="19">
         <v>42</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="19">
         <v>1</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="84" t="s">
+      <c r="F50" s="19"/>
+      <c r="G50" s="79" t="s">
         <v>419</v>
       </c>
-      <c r="H50" s="88" t="s">
+      <c r="H50" s="82" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="21">
+      <c r="A51" s="19">
         <v>43</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="19">
         <v>16</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="19">
         <v>2</v>
       </c>
-      <c r="G51" s="84"/>
-      <c r="H51" s="88" t="s">
+      <c r="G51" s="79"/>
+      <c r="H51" s="82" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="81">
-      <c r="A52" s="21">
+      <c r="A52" s="19">
         <v>44</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
         <v>1</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="84" t="s">
+      <c r="F52" s="19"/>
+      <c r="G52" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="H52" s="88" t="s">
+      <c r="H52" s="82" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="64.8">
-      <c r="A53" s="21">
+      <c r="A53" s="19">
         <v>45</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="19">
         <v>1</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="84" t="s">
+      <c r="F53" s="19"/>
+      <c r="G53" s="79" t="s">
         <v>421</v>
       </c>
-      <c r="H53" s="88" t="s">
+      <c r="H53" s="82" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="21">
+      <c r="A54" s="19">
         <v>46</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="19">
         <v>4</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="84" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="79" t="s">
         <v>322</v>
       </c>
-      <c r="H54" s="88" t="s">
+      <c r="H54" s="82" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="21">
+      <c r="A55" s="19">
         <v>47</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="19">
         <v>8</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>5</v>
       </c>
-      <c r="G55" s="84">
+      <c r="G55" s="79">
         <v>1</v>
       </c>
-      <c r="H55" s="88" t="s">
+      <c r="H55" s="82" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="21">
+      <c r="A56" s="19">
         <v>48</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="19">
         <v>16</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>2</v>
       </c>
-      <c r="G56" s="84"/>
-      <c r="H56" s="88" t="s">
+      <c r="G56" s="79"/>
+      <c r="H56" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="21">
+      <c r="A57" s="19">
         <v>49</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="19">
         <v>16</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="19">
         <v>2</v>
       </c>
-      <c r="G57" s="84"/>
-      <c r="H57" s="88" t="s">
+      <c r="G57" s="79"/>
+      <c r="H57" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="21">
+      <c r="A58" s="19">
         <v>50</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>16</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>2</v>
       </c>
-      <c r="G58" s="84"/>
-      <c r="H58" s="88" t="s">
+      <c r="G58" s="79"/>
+      <c r="H58" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="21">
+      <c r="A59" s="19">
         <v>51</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <v>16</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>2</v>
       </c>
-      <c r="G59" s="84"/>
-      <c r="H59" s="88" t="s">
+      <c r="G59" s="79"/>
+      <c r="H59" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="21">
+      <c r="A60" s="19">
         <v>52</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="19">
         <v>16</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="19">
         <v>2</v>
       </c>
-      <c r="G60" s="84"/>
-      <c r="H60" s="88" t="s">
+      <c r="G60" s="79"/>
+      <c r="H60" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="21">
+      <c r="A61" s="19">
         <v>53</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="19">
         <v>16</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="19">
         <v>2</v>
       </c>
-      <c r="G61" s="84"/>
-      <c r="H61" s="88" t="s">
+      <c r="G61" s="79"/>
+      <c r="H61" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="21">
+      <c r="A62" s="19">
         <v>54</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="19">
         <v>16</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="19">
         <v>2</v>
       </c>
-      <c r="G62" s="84"/>
-      <c r="H62" s="88" t="s">
+      <c r="G62" s="79"/>
+      <c r="H62" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="21">
+      <c r="A63" s="19">
         <v>55</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="19">
         <v>16</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="19">
         <v>2</v>
       </c>
-      <c r="G63" s="84"/>
-      <c r="H63" s="88" t="s">
+      <c r="G63" s="79"/>
+      <c r="H63" s="82" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="21">
+      <c r="A64" s="19">
         <v>56</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="84"/>
+      <c r="D64" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="79"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="21">
+      <c r="A65" s="19">
         <v>57</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="19">
         <v>6</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="84"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="79"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="21">
+      <c r="A66" s="19">
         <v>58</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="84"/>
+      <c r="D66" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="79"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="21">
+      <c r="A67" s="19">
         <v>59</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="19">
         <v>6</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="84"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="79"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="84"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="79"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="17"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="84"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="79"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="17"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="84"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="79"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="17"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="84"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="79"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="17"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="84"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="79"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="17"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="84"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="79"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="17"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="84"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="79"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="17"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="84"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="79"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="17"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="84"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="79"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="17"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="84"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="79"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="17"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="84"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="79"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="17"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="84"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="79"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="17"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="84"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="79"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="17"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="84"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="79"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="17"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="84"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="79"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="17"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="84"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="79"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="17"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="84"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="79"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="17"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="84"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="79"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="17"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="84"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="79"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="17"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="84"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="79"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="17"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="84"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5049,7 +4997,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD7 A57:XFD1048576 A56:G56 I56:XFD56 A27:XFD27 A26:F26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44 A41:XFD41 A40:D40 F40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:F50 B52 D52:F52 B53 D53:F53 B54 D54:XFD54 D55:XFD55 A17:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 E1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:F35 A29:XFD32 A28:D28 F28 H28:XFD28 A16:F16 H16:XFD16 A34:F34 H34:XFD34 A33:F33 H33:XFD33 H40:XFD40 A43:XFD43 A42:F42 H42:XFD42 H50:XFD50 H52:XFD52 H53:XFD53" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD7 A57:XFD63 A56:G56 I56:XFD56 A27:XFD27 A26:F26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44 A41:XFD41 A40:D40 F40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:F50 B52 D52:F52 B53 D53:F53 B54 D54:XFD54 D55:XFD55 A17:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 E1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:F35 A29:XFD32 A28:D28 F28 H28:XFD28 A16:F16 H16:XFD16 A34:F34 H34:XFD34 A33:F33 H33:XFD33 H40:XFD40 A43:XFD43 A42:F42 H42:XFD42 H50:XFD50 H52:XFD52 H53:XFD53 A65:XFD65 A64:C64 E64:XFD64 A67:XFD1048576 A66:C66 E66:XFD66" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5058,7 +5006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
@@ -5072,13 +5020,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5107,31 +5055,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="33.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" s="25" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5151,38 +5099,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="151.21875" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="129.6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="73"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="73"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="73"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="73"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="73"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="77"/>
+      <c r="A7" s="73"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="77"/>
+      <c r="A9" s="73"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -5201,1344 +5149,1344 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="9.109375" style="33"/>
-    <col min="257" max="257" width="4.44140625" style="33" customWidth="1"/>
-    <col min="258" max="258" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="43.44140625" style="33" customWidth="1"/>
-    <col min="260" max="260" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="37" style="33" customWidth="1"/>
-    <col min="262" max="262" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="263" max="512" width="9.109375" style="33"/>
-    <col min="513" max="513" width="4.44140625" style="33" customWidth="1"/>
-    <col min="514" max="514" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="43.44140625" style="33" customWidth="1"/>
-    <col min="516" max="516" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="37" style="33" customWidth="1"/>
-    <col min="518" max="518" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="519" max="768" width="9.109375" style="33"/>
-    <col min="769" max="769" width="4.44140625" style="33" customWidth="1"/>
-    <col min="770" max="770" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="43.44140625" style="33" customWidth="1"/>
-    <col min="772" max="772" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="37" style="33" customWidth="1"/>
-    <col min="774" max="774" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="775" max="1024" width="9.109375" style="33"/>
-    <col min="1025" max="1025" width="4.44140625" style="33" customWidth="1"/>
-    <col min="1026" max="1026" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="43.44140625" style="33" customWidth="1"/>
-    <col min="1028" max="1028" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="37" style="33" customWidth="1"/>
-    <col min="1030" max="1030" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1280" width="9.109375" style="33"/>
-    <col min="1281" max="1281" width="4.44140625" style="33" customWidth="1"/>
-    <col min="1282" max="1282" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="43.44140625" style="33" customWidth="1"/>
-    <col min="1284" max="1284" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="37" style="33" customWidth="1"/>
-    <col min="1286" max="1286" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1536" width="9.109375" style="33"/>
-    <col min="1537" max="1537" width="4.44140625" style="33" customWidth="1"/>
-    <col min="1538" max="1538" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="43.44140625" style="33" customWidth="1"/>
-    <col min="1540" max="1540" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="37" style="33" customWidth="1"/>
-    <col min="1542" max="1542" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1792" width="9.109375" style="33"/>
-    <col min="1793" max="1793" width="4.44140625" style="33" customWidth="1"/>
-    <col min="1794" max="1794" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="43.44140625" style="33" customWidth="1"/>
-    <col min="1796" max="1796" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="37" style="33" customWidth="1"/>
-    <col min="1798" max="1798" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="1799" max="2048" width="9.109375" style="33"/>
-    <col min="2049" max="2049" width="4.44140625" style="33" customWidth="1"/>
-    <col min="2050" max="2050" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="43.44140625" style="33" customWidth="1"/>
-    <col min="2052" max="2052" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="37" style="33" customWidth="1"/>
-    <col min="2054" max="2054" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2304" width="9.109375" style="33"/>
-    <col min="2305" max="2305" width="4.44140625" style="33" customWidth="1"/>
-    <col min="2306" max="2306" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="43.44140625" style="33" customWidth="1"/>
-    <col min="2308" max="2308" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="37" style="33" customWidth="1"/>
-    <col min="2310" max="2310" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2560" width="9.109375" style="33"/>
-    <col min="2561" max="2561" width="4.44140625" style="33" customWidth="1"/>
-    <col min="2562" max="2562" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="43.44140625" style="33" customWidth="1"/>
-    <col min="2564" max="2564" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="37" style="33" customWidth="1"/>
-    <col min="2566" max="2566" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2816" width="9.109375" style="33"/>
-    <col min="2817" max="2817" width="4.44140625" style="33" customWidth="1"/>
-    <col min="2818" max="2818" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="43.44140625" style="33" customWidth="1"/>
-    <col min="2820" max="2820" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="37" style="33" customWidth="1"/>
-    <col min="2822" max="2822" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="2823" max="3072" width="9.109375" style="33"/>
-    <col min="3073" max="3073" width="4.44140625" style="33" customWidth="1"/>
-    <col min="3074" max="3074" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="43.44140625" style="33" customWidth="1"/>
-    <col min="3076" max="3076" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="37" style="33" customWidth="1"/>
-    <col min="3078" max="3078" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3328" width="9.109375" style="33"/>
-    <col min="3329" max="3329" width="4.44140625" style="33" customWidth="1"/>
-    <col min="3330" max="3330" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="43.44140625" style="33" customWidth="1"/>
-    <col min="3332" max="3332" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="37" style="33" customWidth="1"/>
-    <col min="3334" max="3334" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3584" width="9.109375" style="33"/>
-    <col min="3585" max="3585" width="4.44140625" style="33" customWidth="1"/>
-    <col min="3586" max="3586" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="43.44140625" style="33" customWidth="1"/>
-    <col min="3588" max="3588" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="37" style="33" customWidth="1"/>
-    <col min="3590" max="3590" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3840" width="9.109375" style="33"/>
-    <col min="3841" max="3841" width="4.44140625" style="33" customWidth="1"/>
-    <col min="3842" max="3842" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="43.44140625" style="33" customWidth="1"/>
-    <col min="3844" max="3844" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="37" style="33" customWidth="1"/>
-    <col min="3846" max="3846" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="3847" max="4096" width="9.109375" style="33"/>
-    <col min="4097" max="4097" width="4.44140625" style="33" customWidth="1"/>
-    <col min="4098" max="4098" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="43.44140625" style="33" customWidth="1"/>
-    <col min="4100" max="4100" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="37" style="33" customWidth="1"/>
-    <col min="4102" max="4102" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4352" width="9.109375" style="33"/>
-    <col min="4353" max="4353" width="4.44140625" style="33" customWidth="1"/>
-    <col min="4354" max="4354" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="43.44140625" style="33" customWidth="1"/>
-    <col min="4356" max="4356" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="37" style="33" customWidth="1"/>
-    <col min="4358" max="4358" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4608" width="9.109375" style="33"/>
-    <col min="4609" max="4609" width="4.44140625" style="33" customWidth="1"/>
-    <col min="4610" max="4610" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="43.44140625" style="33" customWidth="1"/>
-    <col min="4612" max="4612" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="37" style="33" customWidth="1"/>
-    <col min="4614" max="4614" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4864" width="9.109375" style="33"/>
-    <col min="4865" max="4865" width="4.44140625" style="33" customWidth="1"/>
-    <col min="4866" max="4866" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="43.44140625" style="33" customWidth="1"/>
-    <col min="4868" max="4868" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="37" style="33" customWidth="1"/>
-    <col min="4870" max="4870" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="4871" max="5120" width="9.109375" style="33"/>
-    <col min="5121" max="5121" width="4.44140625" style="33" customWidth="1"/>
-    <col min="5122" max="5122" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="43.44140625" style="33" customWidth="1"/>
-    <col min="5124" max="5124" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="37" style="33" customWidth="1"/>
-    <col min="5126" max="5126" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5376" width="9.109375" style="33"/>
-    <col min="5377" max="5377" width="4.44140625" style="33" customWidth="1"/>
-    <col min="5378" max="5378" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="43.44140625" style="33" customWidth="1"/>
-    <col min="5380" max="5380" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="37" style="33" customWidth="1"/>
-    <col min="5382" max="5382" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5632" width="9.109375" style="33"/>
-    <col min="5633" max="5633" width="4.44140625" style="33" customWidth="1"/>
-    <col min="5634" max="5634" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="43.44140625" style="33" customWidth="1"/>
-    <col min="5636" max="5636" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="37" style="33" customWidth="1"/>
-    <col min="5638" max="5638" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5888" width="9.109375" style="33"/>
-    <col min="5889" max="5889" width="4.44140625" style="33" customWidth="1"/>
-    <col min="5890" max="5890" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="43.44140625" style="33" customWidth="1"/>
-    <col min="5892" max="5892" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="37" style="33" customWidth="1"/>
-    <col min="5894" max="5894" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="5895" max="6144" width="9.109375" style="33"/>
-    <col min="6145" max="6145" width="4.44140625" style="33" customWidth="1"/>
-    <col min="6146" max="6146" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="43.44140625" style="33" customWidth="1"/>
-    <col min="6148" max="6148" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="37" style="33" customWidth="1"/>
-    <col min="6150" max="6150" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6400" width="9.109375" style="33"/>
-    <col min="6401" max="6401" width="4.44140625" style="33" customWidth="1"/>
-    <col min="6402" max="6402" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="43.44140625" style="33" customWidth="1"/>
-    <col min="6404" max="6404" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="37" style="33" customWidth="1"/>
-    <col min="6406" max="6406" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6656" width="9.109375" style="33"/>
-    <col min="6657" max="6657" width="4.44140625" style="33" customWidth="1"/>
-    <col min="6658" max="6658" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="43.44140625" style="33" customWidth="1"/>
-    <col min="6660" max="6660" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="37" style="33" customWidth="1"/>
-    <col min="6662" max="6662" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6912" width="9.109375" style="33"/>
-    <col min="6913" max="6913" width="4.44140625" style="33" customWidth="1"/>
-    <col min="6914" max="6914" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="43.44140625" style="33" customWidth="1"/>
-    <col min="6916" max="6916" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="37" style="33" customWidth="1"/>
-    <col min="6918" max="6918" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="6919" max="7168" width="9.109375" style="33"/>
-    <col min="7169" max="7169" width="4.44140625" style="33" customWidth="1"/>
-    <col min="7170" max="7170" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="43.44140625" style="33" customWidth="1"/>
-    <col min="7172" max="7172" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="37" style="33" customWidth="1"/>
-    <col min="7174" max="7174" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7424" width="9.109375" style="33"/>
-    <col min="7425" max="7425" width="4.44140625" style="33" customWidth="1"/>
-    <col min="7426" max="7426" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="43.44140625" style="33" customWidth="1"/>
-    <col min="7428" max="7428" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="37" style="33" customWidth="1"/>
-    <col min="7430" max="7430" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7680" width="9.109375" style="33"/>
-    <col min="7681" max="7681" width="4.44140625" style="33" customWidth="1"/>
-    <col min="7682" max="7682" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="43.44140625" style="33" customWidth="1"/>
-    <col min="7684" max="7684" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="37" style="33" customWidth="1"/>
-    <col min="7686" max="7686" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7936" width="9.109375" style="33"/>
-    <col min="7937" max="7937" width="4.44140625" style="33" customWidth="1"/>
-    <col min="7938" max="7938" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="43.44140625" style="33" customWidth="1"/>
-    <col min="7940" max="7940" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="37" style="33" customWidth="1"/>
-    <col min="7942" max="7942" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="7943" max="8192" width="9.109375" style="33"/>
-    <col min="8193" max="8193" width="4.44140625" style="33" customWidth="1"/>
-    <col min="8194" max="8194" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="43.44140625" style="33" customWidth="1"/>
-    <col min="8196" max="8196" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="37" style="33" customWidth="1"/>
-    <col min="8198" max="8198" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8448" width="9.109375" style="33"/>
-    <col min="8449" max="8449" width="4.44140625" style="33" customWidth="1"/>
-    <col min="8450" max="8450" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="43.44140625" style="33" customWidth="1"/>
-    <col min="8452" max="8452" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="37" style="33" customWidth="1"/>
-    <col min="8454" max="8454" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8704" width="9.109375" style="33"/>
-    <col min="8705" max="8705" width="4.44140625" style="33" customWidth="1"/>
-    <col min="8706" max="8706" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="43.44140625" style="33" customWidth="1"/>
-    <col min="8708" max="8708" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="37" style="33" customWidth="1"/>
-    <col min="8710" max="8710" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8960" width="9.109375" style="33"/>
-    <col min="8961" max="8961" width="4.44140625" style="33" customWidth="1"/>
-    <col min="8962" max="8962" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="43.44140625" style="33" customWidth="1"/>
-    <col min="8964" max="8964" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="37" style="33" customWidth="1"/>
-    <col min="8966" max="8966" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="8967" max="9216" width="9.109375" style="33"/>
-    <col min="9217" max="9217" width="4.44140625" style="33" customWidth="1"/>
-    <col min="9218" max="9218" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="43.44140625" style="33" customWidth="1"/>
-    <col min="9220" max="9220" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="37" style="33" customWidth="1"/>
-    <col min="9222" max="9222" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9472" width="9.109375" style="33"/>
-    <col min="9473" max="9473" width="4.44140625" style="33" customWidth="1"/>
-    <col min="9474" max="9474" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="43.44140625" style="33" customWidth="1"/>
-    <col min="9476" max="9476" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="37" style="33" customWidth="1"/>
-    <col min="9478" max="9478" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9728" width="9.109375" style="33"/>
-    <col min="9729" max="9729" width="4.44140625" style="33" customWidth="1"/>
-    <col min="9730" max="9730" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="43.44140625" style="33" customWidth="1"/>
-    <col min="9732" max="9732" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="37" style="33" customWidth="1"/>
-    <col min="9734" max="9734" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9984" width="9.109375" style="33"/>
-    <col min="9985" max="9985" width="4.44140625" style="33" customWidth="1"/>
-    <col min="9986" max="9986" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="43.44140625" style="33" customWidth="1"/>
-    <col min="9988" max="9988" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="37" style="33" customWidth="1"/>
-    <col min="9990" max="9990" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="9991" max="10240" width="9.109375" style="33"/>
-    <col min="10241" max="10241" width="4.44140625" style="33" customWidth="1"/>
-    <col min="10242" max="10242" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="43.44140625" style="33" customWidth="1"/>
-    <col min="10244" max="10244" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="37" style="33" customWidth="1"/>
-    <col min="10246" max="10246" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10496" width="9.109375" style="33"/>
-    <col min="10497" max="10497" width="4.44140625" style="33" customWidth="1"/>
-    <col min="10498" max="10498" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="43.44140625" style="33" customWidth="1"/>
-    <col min="10500" max="10500" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="37" style="33" customWidth="1"/>
-    <col min="10502" max="10502" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10752" width="9.109375" style="33"/>
-    <col min="10753" max="10753" width="4.44140625" style="33" customWidth="1"/>
-    <col min="10754" max="10754" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="43.44140625" style="33" customWidth="1"/>
-    <col min="10756" max="10756" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="37" style="33" customWidth="1"/>
-    <col min="10758" max="10758" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="10759" max="11008" width="9.109375" style="33"/>
-    <col min="11009" max="11009" width="4.44140625" style="33" customWidth="1"/>
-    <col min="11010" max="11010" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="43.44140625" style="33" customWidth="1"/>
-    <col min="11012" max="11012" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="37" style="33" customWidth="1"/>
-    <col min="11014" max="11014" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11264" width="9.109375" style="33"/>
-    <col min="11265" max="11265" width="4.44140625" style="33" customWidth="1"/>
-    <col min="11266" max="11266" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="43.44140625" style="33" customWidth="1"/>
-    <col min="11268" max="11268" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="37" style="33" customWidth="1"/>
-    <col min="11270" max="11270" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11520" width="9.109375" style="33"/>
-    <col min="11521" max="11521" width="4.44140625" style="33" customWidth="1"/>
-    <col min="11522" max="11522" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="43.44140625" style="33" customWidth="1"/>
-    <col min="11524" max="11524" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="37" style="33" customWidth="1"/>
-    <col min="11526" max="11526" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11776" width="9.109375" style="33"/>
-    <col min="11777" max="11777" width="4.44140625" style="33" customWidth="1"/>
-    <col min="11778" max="11778" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="43.44140625" style="33" customWidth="1"/>
-    <col min="11780" max="11780" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="37" style="33" customWidth="1"/>
-    <col min="11782" max="11782" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="11783" max="12032" width="9.109375" style="33"/>
-    <col min="12033" max="12033" width="4.44140625" style="33" customWidth="1"/>
-    <col min="12034" max="12034" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="43.44140625" style="33" customWidth="1"/>
-    <col min="12036" max="12036" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="37" style="33" customWidth="1"/>
-    <col min="12038" max="12038" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12288" width="9.109375" style="33"/>
-    <col min="12289" max="12289" width="4.44140625" style="33" customWidth="1"/>
-    <col min="12290" max="12290" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="43.44140625" style="33" customWidth="1"/>
-    <col min="12292" max="12292" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="37" style="33" customWidth="1"/>
-    <col min="12294" max="12294" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12544" width="9.109375" style="33"/>
-    <col min="12545" max="12545" width="4.44140625" style="33" customWidth="1"/>
-    <col min="12546" max="12546" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="43.44140625" style="33" customWidth="1"/>
-    <col min="12548" max="12548" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="37" style="33" customWidth="1"/>
-    <col min="12550" max="12550" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12800" width="9.109375" style="33"/>
-    <col min="12801" max="12801" width="4.44140625" style="33" customWidth="1"/>
-    <col min="12802" max="12802" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="43.44140625" style="33" customWidth="1"/>
-    <col min="12804" max="12804" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="37" style="33" customWidth="1"/>
-    <col min="12806" max="12806" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="12807" max="13056" width="9.109375" style="33"/>
-    <col min="13057" max="13057" width="4.44140625" style="33" customWidth="1"/>
-    <col min="13058" max="13058" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="43.44140625" style="33" customWidth="1"/>
-    <col min="13060" max="13060" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="37" style="33" customWidth="1"/>
-    <col min="13062" max="13062" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13312" width="9.109375" style="33"/>
-    <col min="13313" max="13313" width="4.44140625" style="33" customWidth="1"/>
-    <col min="13314" max="13314" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="43.44140625" style="33" customWidth="1"/>
-    <col min="13316" max="13316" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="37" style="33" customWidth="1"/>
-    <col min="13318" max="13318" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13568" width="9.109375" style="33"/>
-    <col min="13569" max="13569" width="4.44140625" style="33" customWidth="1"/>
-    <col min="13570" max="13570" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="43.44140625" style="33" customWidth="1"/>
-    <col min="13572" max="13572" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="37" style="33" customWidth="1"/>
-    <col min="13574" max="13574" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13824" width="9.109375" style="33"/>
-    <col min="13825" max="13825" width="4.44140625" style="33" customWidth="1"/>
-    <col min="13826" max="13826" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="43.44140625" style="33" customWidth="1"/>
-    <col min="13828" max="13828" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="37" style="33" customWidth="1"/>
-    <col min="13830" max="13830" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="13831" max="14080" width="9.109375" style="33"/>
-    <col min="14081" max="14081" width="4.44140625" style="33" customWidth="1"/>
-    <col min="14082" max="14082" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="43.44140625" style="33" customWidth="1"/>
-    <col min="14084" max="14084" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="37" style="33" customWidth="1"/>
-    <col min="14086" max="14086" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14336" width="9.109375" style="33"/>
-    <col min="14337" max="14337" width="4.44140625" style="33" customWidth="1"/>
-    <col min="14338" max="14338" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="43.44140625" style="33" customWidth="1"/>
-    <col min="14340" max="14340" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="37" style="33" customWidth="1"/>
-    <col min="14342" max="14342" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14592" width="9.109375" style="33"/>
-    <col min="14593" max="14593" width="4.44140625" style="33" customWidth="1"/>
-    <col min="14594" max="14594" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="43.44140625" style="33" customWidth="1"/>
-    <col min="14596" max="14596" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="37" style="33" customWidth="1"/>
-    <col min="14598" max="14598" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14848" width="9.109375" style="33"/>
-    <col min="14849" max="14849" width="4.44140625" style="33" customWidth="1"/>
-    <col min="14850" max="14850" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="43.44140625" style="33" customWidth="1"/>
-    <col min="14852" max="14852" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="37" style="33" customWidth="1"/>
-    <col min="14854" max="14854" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="14855" max="15104" width="9.109375" style="33"/>
-    <col min="15105" max="15105" width="4.44140625" style="33" customWidth="1"/>
-    <col min="15106" max="15106" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="43.44140625" style="33" customWidth="1"/>
-    <col min="15108" max="15108" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="37" style="33" customWidth="1"/>
-    <col min="15110" max="15110" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15360" width="9.109375" style="33"/>
-    <col min="15361" max="15361" width="4.44140625" style="33" customWidth="1"/>
-    <col min="15362" max="15362" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="43.44140625" style="33" customWidth="1"/>
-    <col min="15364" max="15364" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="37" style="33" customWidth="1"/>
-    <col min="15366" max="15366" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15616" width="9.109375" style="33"/>
-    <col min="15617" max="15617" width="4.44140625" style="33" customWidth="1"/>
-    <col min="15618" max="15618" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="43.44140625" style="33" customWidth="1"/>
-    <col min="15620" max="15620" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="37" style="33" customWidth="1"/>
-    <col min="15622" max="15622" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15872" width="9.109375" style="33"/>
-    <col min="15873" max="15873" width="4.44140625" style="33" customWidth="1"/>
-    <col min="15874" max="15874" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="43.44140625" style="33" customWidth="1"/>
-    <col min="15876" max="15876" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="37" style="33" customWidth="1"/>
-    <col min="15878" max="15878" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="15879" max="16128" width="9.109375" style="33"/>
-    <col min="16129" max="16129" width="4.44140625" style="33" customWidth="1"/>
-    <col min="16130" max="16130" width="29.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="43.44140625" style="33" customWidth="1"/>
-    <col min="16132" max="16132" width="26.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="37" style="33" customWidth="1"/>
-    <col min="16134" max="16134" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16384" width="9.109375" style="33"/>
+    <col min="1" max="1" width="4.44140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="29" customWidth="1"/>
+    <col min="6" max="6" width="9" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="256" width="9.109375" style="29"/>
+    <col min="257" max="257" width="4.44140625" style="29" customWidth="1"/>
+    <col min="258" max="258" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="43.44140625" style="29" customWidth="1"/>
+    <col min="260" max="260" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="37" style="29" customWidth="1"/>
+    <col min="262" max="262" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="263" max="512" width="9.109375" style="29"/>
+    <col min="513" max="513" width="4.44140625" style="29" customWidth="1"/>
+    <col min="514" max="514" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="43.44140625" style="29" customWidth="1"/>
+    <col min="516" max="516" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="37" style="29" customWidth="1"/>
+    <col min="518" max="518" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="519" max="768" width="9.109375" style="29"/>
+    <col min="769" max="769" width="4.44140625" style="29" customWidth="1"/>
+    <col min="770" max="770" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="43.44140625" style="29" customWidth="1"/>
+    <col min="772" max="772" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="37" style="29" customWidth="1"/>
+    <col min="774" max="774" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="775" max="1024" width="9.109375" style="29"/>
+    <col min="1025" max="1025" width="4.44140625" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="43.44140625" style="29" customWidth="1"/>
+    <col min="1028" max="1028" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="37" style="29" customWidth="1"/>
+    <col min="1030" max="1030" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1280" width="9.109375" style="29"/>
+    <col min="1281" max="1281" width="4.44140625" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="43.44140625" style="29" customWidth="1"/>
+    <col min="1284" max="1284" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="37" style="29" customWidth="1"/>
+    <col min="1286" max="1286" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1536" width="9.109375" style="29"/>
+    <col min="1537" max="1537" width="4.44140625" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="43.44140625" style="29" customWidth="1"/>
+    <col min="1540" max="1540" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="37" style="29" customWidth="1"/>
+    <col min="1542" max="1542" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1792" width="9.109375" style="29"/>
+    <col min="1793" max="1793" width="4.44140625" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="43.44140625" style="29" customWidth="1"/>
+    <col min="1796" max="1796" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="37" style="29" customWidth="1"/>
+    <col min="1798" max="1798" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2048" width="9.109375" style="29"/>
+    <col min="2049" max="2049" width="4.44140625" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="43.44140625" style="29" customWidth="1"/>
+    <col min="2052" max="2052" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="37" style="29" customWidth="1"/>
+    <col min="2054" max="2054" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2304" width="9.109375" style="29"/>
+    <col min="2305" max="2305" width="4.44140625" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="43.44140625" style="29" customWidth="1"/>
+    <col min="2308" max="2308" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="37" style="29" customWidth="1"/>
+    <col min="2310" max="2310" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2560" width="9.109375" style="29"/>
+    <col min="2561" max="2561" width="4.44140625" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="43.44140625" style="29" customWidth="1"/>
+    <col min="2564" max="2564" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="37" style="29" customWidth="1"/>
+    <col min="2566" max="2566" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2816" width="9.109375" style="29"/>
+    <col min="2817" max="2817" width="4.44140625" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="43.44140625" style="29" customWidth="1"/>
+    <col min="2820" max="2820" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="37" style="29" customWidth="1"/>
+    <col min="2822" max="2822" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3072" width="9.109375" style="29"/>
+    <col min="3073" max="3073" width="4.44140625" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="43.44140625" style="29" customWidth="1"/>
+    <col min="3076" max="3076" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="37" style="29" customWidth="1"/>
+    <col min="3078" max="3078" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3328" width="9.109375" style="29"/>
+    <col min="3329" max="3329" width="4.44140625" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="43.44140625" style="29" customWidth="1"/>
+    <col min="3332" max="3332" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="37" style="29" customWidth="1"/>
+    <col min="3334" max="3334" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3584" width="9.109375" style="29"/>
+    <col min="3585" max="3585" width="4.44140625" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="43.44140625" style="29" customWidth="1"/>
+    <col min="3588" max="3588" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="37" style="29" customWidth="1"/>
+    <col min="3590" max="3590" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3840" width="9.109375" style="29"/>
+    <col min="3841" max="3841" width="4.44140625" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="43.44140625" style="29" customWidth="1"/>
+    <col min="3844" max="3844" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="37" style="29" customWidth="1"/>
+    <col min="3846" max="3846" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4096" width="9.109375" style="29"/>
+    <col min="4097" max="4097" width="4.44140625" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="43.44140625" style="29" customWidth="1"/>
+    <col min="4100" max="4100" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="37" style="29" customWidth="1"/>
+    <col min="4102" max="4102" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4352" width="9.109375" style="29"/>
+    <col min="4353" max="4353" width="4.44140625" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="43.44140625" style="29" customWidth="1"/>
+    <col min="4356" max="4356" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="37" style="29" customWidth="1"/>
+    <col min="4358" max="4358" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4608" width="9.109375" style="29"/>
+    <col min="4609" max="4609" width="4.44140625" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="43.44140625" style="29" customWidth="1"/>
+    <col min="4612" max="4612" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="37" style="29" customWidth="1"/>
+    <col min="4614" max="4614" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4864" width="9.109375" style="29"/>
+    <col min="4865" max="4865" width="4.44140625" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="43.44140625" style="29" customWidth="1"/>
+    <col min="4868" max="4868" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="37" style="29" customWidth="1"/>
+    <col min="4870" max="4870" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5120" width="9.109375" style="29"/>
+    <col min="5121" max="5121" width="4.44140625" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="43.44140625" style="29" customWidth="1"/>
+    <col min="5124" max="5124" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="37" style="29" customWidth="1"/>
+    <col min="5126" max="5126" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5376" width="9.109375" style="29"/>
+    <col min="5377" max="5377" width="4.44140625" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="43.44140625" style="29" customWidth="1"/>
+    <col min="5380" max="5380" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="37" style="29" customWidth="1"/>
+    <col min="5382" max="5382" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5632" width="9.109375" style="29"/>
+    <col min="5633" max="5633" width="4.44140625" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="43.44140625" style="29" customWidth="1"/>
+    <col min="5636" max="5636" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="37" style="29" customWidth="1"/>
+    <col min="5638" max="5638" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5888" width="9.109375" style="29"/>
+    <col min="5889" max="5889" width="4.44140625" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="43.44140625" style="29" customWidth="1"/>
+    <col min="5892" max="5892" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="37" style="29" customWidth="1"/>
+    <col min="5894" max="5894" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6144" width="9.109375" style="29"/>
+    <col min="6145" max="6145" width="4.44140625" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="43.44140625" style="29" customWidth="1"/>
+    <col min="6148" max="6148" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="37" style="29" customWidth="1"/>
+    <col min="6150" max="6150" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6400" width="9.109375" style="29"/>
+    <col min="6401" max="6401" width="4.44140625" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="43.44140625" style="29" customWidth="1"/>
+    <col min="6404" max="6404" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="37" style="29" customWidth="1"/>
+    <col min="6406" max="6406" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6656" width="9.109375" style="29"/>
+    <col min="6657" max="6657" width="4.44140625" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="43.44140625" style="29" customWidth="1"/>
+    <col min="6660" max="6660" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="37" style="29" customWidth="1"/>
+    <col min="6662" max="6662" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6912" width="9.109375" style="29"/>
+    <col min="6913" max="6913" width="4.44140625" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="43.44140625" style="29" customWidth="1"/>
+    <col min="6916" max="6916" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="37" style="29" customWidth="1"/>
+    <col min="6918" max="6918" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7168" width="9.109375" style="29"/>
+    <col min="7169" max="7169" width="4.44140625" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="43.44140625" style="29" customWidth="1"/>
+    <col min="7172" max="7172" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="37" style="29" customWidth="1"/>
+    <col min="7174" max="7174" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7424" width="9.109375" style="29"/>
+    <col min="7425" max="7425" width="4.44140625" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="43.44140625" style="29" customWidth="1"/>
+    <col min="7428" max="7428" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="37" style="29" customWidth="1"/>
+    <col min="7430" max="7430" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7680" width="9.109375" style="29"/>
+    <col min="7681" max="7681" width="4.44140625" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="43.44140625" style="29" customWidth="1"/>
+    <col min="7684" max="7684" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="37" style="29" customWidth="1"/>
+    <col min="7686" max="7686" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7936" width="9.109375" style="29"/>
+    <col min="7937" max="7937" width="4.44140625" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="43.44140625" style="29" customWidth="1"/>
+    <col min="7940" max="7940" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="37" style="29" customWidth="1"/>
+    <col min="7942" max="7942" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8192" width="9.109375" style="29"/>
+    <col min="8193" max="8193" width="4.44140625" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="43.44140625" style="29" customWidth="1"/>
+    <col min="8196" max="8196" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="37" style="29" customWidth="1"/>
+    <col min="8198" max="8198" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8448" width="9.109375" style="29"/>
+    <col min="8449" max="8449" width="4.44140625" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="43.44140625" style="29" customWidth="1"/>
+    <col min="8452" max="8452" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="37" style="29" customWidth="1"/>
+    <col min="8454" max="8454" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8704" width="9.109375" style="29"/>
+    <col min="8705" max="8705" width="4.44140625" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="43.44140625" style="29" customWidth="1"/>
+    <col min="8708" max="8708" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="37" style="29" customWidth="1"/>
+    <col min="8710" max="8710" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8960" width="9.109375" style="29"/>
+    <col min="8961" max="8961" width="4.44140625" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="43.44140625" style="29" customWidth="1"/>
+    <col min="8964" max="8964" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="37" style="29" customWidth="1"/>
+    <col min="8966" max="8966" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9216" width="9.109375" style="29"/>
+    <col min="9217" max="9217" width="4.44140625" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="43.44140625" style="29" customWidth="1"/>
+    <col min="9220" max="9220" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="37" style="29" customWidth="1"/>
+    <col min="9222" max="9222" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9472" width="9.109375" style="29"/>
+    <col min="9473" max="9473" width="4.44140625" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="43.44140625" style="29" customWidth="1"/>
+    <col min="9476" max="9476" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="37" style="29" customWidth="1"/>
+    <col min="9478" max="9478" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9728" width="9.109375" style="29"/>
+    <col min="9729" max="9729" width="4.44140625" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="43.44140625" style="29" customWidth="1"/>
+    <col min="9732" max="9732" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="37" style="29" customWidth="1"/>
+    <col min="9734" max="9734" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9984" width="9.109375" style="29"/>
+    <col min="9985" max="9985" width="4.44140625" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="43.44140625" style="29" customWidth="1"/>
+    <col min="9988" max="9988" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="37" style="29" customWidth="1"/>
+    <col min="9990" max="9990" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10240" width="9.109375" style="29"/>
+    <col min="10241" max="10241" width="4.44140625" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="43.44140625" style="29" customWidth="1"/>
+    <col min="10244" max="10244" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="37" style="29" customWidth="1"/>
+    <col min="10246" max="10246" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10496" width="9.109375" style="29"/>
+    <col min="10497" max="10497" width="4.44140625" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="43.44140625" style="29" customWidth="1"/>
+    <col min="10500" max="10500" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="37" style="29" customWidth="1"/>
+    <col min="10502" max="10502" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10752" width="9.109375" style="29"/>
+    <col min="10753" max="10753" width="4.44140625" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="43.44140625" style="29" customWidth="1"/>
+    <col min="10756" max="10756" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="37" style="29" customWidth="1"/>
+    <col min="10758" max="10758" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11008" width="9.109375" style="29"/>
+    <col min="11009" max="11009" width="4.44140625" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="43.44140625" style="29" customWidth="1"/>
+    <col min="11012" max="11012" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="37" style="29" customWidth="1"/>
+    <col min="11014" max="11014" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11264" width="9.109375" style="29"/>
+    <col min="11265" max="11265" width="4.44140625" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="43.44140625" style="29" customWidth="1"/>
+    <col min="11268" max="11268" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="37" style="29" customWidth="1"/>
+    <col min="11270" max="11270" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11520" width="9.109375" style="29"/>
+    <col min="11521" max="11521" width="4.44140625" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="43.44140625" style="29" customWidth="1"/>
+    <col min="11524" max="11524" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="37" style="29" customWidth="1"/>
+    <col min="11526" max="11526" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11776" width="9.109375" style="29"/>
+    <col min="11777" max="11777" width="4.44140625" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="43.44140625" style="29" customWidth="1"/>
+    <col min="11780" max="11780" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="37" style="29" customWidth="1"/>
+    <col min="11782" max="11782" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12032" width="9.109375" style="29"/>
+    <col min="12033" max="12033" width="4.44140625" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="43.44140625" style="29" customWidth="1"/>
+    <col min="12036" max="12036" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="37" style="29" customWidth="1"/>
+    <col min="12038" max="12038" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12288" width="9.109375" style="29"/>
+    <col min="12289" max="12289" width="4.44140625" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="43.44140625" style="29" customWidth="1"/>
+    <col min="12292" max="12292" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="37" style="29" customWidth="1"/>
+    <col min="12294" max="12294" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12544" width="9.109375" style="29"/>
+    <col min="12545" max="12545" width="4.44140625" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="43.44140625" style="29" customWidth="1"/>
+    <col min="12548" max="12548" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="37" style="29" customWidth="1"/>
+    <col min="12550" max="12550" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12800" width="9.109375" style="29"/>
+    <col min="12801" max="12801" width="4.44140625" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="43.44140625" style="29" customWidth="1"/>
+    <col min="12804" max="12804" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="37" style="29" customWidth="1"/>
+    <col min="12806" max="12806" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13056" width="9.109375" style="29"/>
+    <col min="13057" max="13057" width="4.44140625" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="43.44140625" style="29" customWidth="1"/>
+    <col min="13060" max="13060" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="37" style="29" customWidth="1"/>
+    <col min="13062" max="13062" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13312" width="9.109375" style="29"/>
+    <col min="13313" max="13313" width="4.44140625" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="43.44140625" style="29" customWidth="1"/>
+    <col min="13316" max="13316" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="37" style="29" customWidth="1"/>
+    <col min="13318" max="13318" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13568" width="9.109375" style="29"/>
+    <col min="13569" max="13569" width="4.44140625" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="43.44140625" style="29" customWidth="1"/>
+    <col min="13572" max="13572" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="37" style="29" customWidth="1"/>
+    <col min="13574" max="13574" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13824" width="9.109375" style="29"/>
+    <col min="13825" max="13825" width="4.44140625" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="43.44140625" style="29" customWidth="1"/>
+    <col min="13828" max="13828" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="37" style="29" customWidth="1"/>
+    <col min="13830" max="13830" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14080" width="9.109375" style="29"/>
+    <col min="14081" max="14081" width="4.44140625" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="43.44140625" style="29" customWidth="1"/>
+    <col min="14084" max="14084" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="37" style="29" customWidth="1"/>
+    <col min="14086" max="14086" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14336" width="9.109375" style="29"/>
+    <col min="14337" max="14337" width="4.44140625" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="43.44140625" style="29" customWidth="1"/>
+    <col min="14340" max="14340" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="37" style="29" customWidth="1"/>
+    <col min="14342" max="14342" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14592" width="9.109375" style="29"/>
+    <col min="14593" max="14593" width="4.44140625" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="43.44140625" style="29" customWidth="1"/>
+    <col min="14596" max="14596" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="37" style="29" customWidth="1"/>
+    <col min="14598" max="14598" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14848" width="9.109375" style="29"/>
+    <col min="14849" max="14849" width="4.44140625" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="43.44140625" style="29" customWidth="1"/>
+    <col min="14852" max="14852" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="37" style="29" customWidth="1"/>
+    <col min="14854" max="14854" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15104" width="9.109375" style="29"/>
+    <col min="15105" max="15105" width="4.44140625" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="43.44140625" style="29" customWidth="1"/>
+    <col min="15108" max="15108" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="37" style="29" customWidth="1"/>
+    <col min="15110" max="15110" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15360" width="9.109375" style="29"/>
+    <col min="15361" max="15361" width="4.44140625" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="43.44140625" style="29" customWidth="1"/>
+    <col min="15364" max="15364" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="37" style="29" customWidth="1"/>
+    <col min="15366" max="15366" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15616" width="9.109375" style="29"/>
+    <col min="15617" max="15617" width="4.44140625" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="43.44140625" style="29" customWidth="1"/>
+    <col min="15620" max="15620" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="37" style="29" customWidth="1"/>
+    <col min="15622" max="15622" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15872" width="9.109375" style="29"/>
+    <col min="15873" max="15873" width="4.44140625" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="43.44140625" style="29" customWidth="1"/>
+    <col min="15876" max="15876" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="37" style="29" customWidth="1"/>
+    <col min="15878" max="15878" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16128" width="9.109375" style="29"/>
+    <col min="16129" max="16129" width="4.44140625" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="29.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="43.44140625" style="29" customWidth="1"/>
+    <col min="16132" max="16132" width="26.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="37" style="29" customWidth="1"/>
+    <col min="16134" max="16134" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="85" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="38" customFormat="1" ht="15.6">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:6" s="34" customFormat="1" ht="15.6">
+      <c r="A2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A4" s="42" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A4" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A5" s="48">
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A6" s="48">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A7" s="48">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A7" s="44">
         <v>3</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A8" s="48">
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A9" s="48">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A9" s="44">
         <v>5</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A10" s="48">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A10" s="44">
         <v>6</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A11" s="48">
+      <c r="E10" s="48"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A11" s="44">
         <v>7</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A12" s="48">
+      <c r="E11" s="48"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A12" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A13" s="48">
+      <c r="E12" s="48"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A13" s="44">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A14" s="48">
+      <c r="E13" s="48"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A14" s="44">
         <v>10</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A15" s="48">
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A15" s="44">
         <v>11</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A16" s="48">
+      <c r="E15" s="48"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A16" s="44">
         <v>12</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A17" s="48">
+      <c r="E16" s="48"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A17" s="44">
         <v>13</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A18" s="48">
+      <c r="E17" s="48"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A18" s="44">
         <v>14</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A19" s="56">
+      <c r="E18" s="48"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A19" s="52">
         <v>15</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A20" s="56">
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A20" s="52">
         <v>16</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="46"/>
-    </row>
-    <row r="21" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A21" s="56">
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A21" s="52">
         <v>17</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="1:6" s="47" customFormat="1" ht="55.2">
-      <c r="A22" s="48">
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" s="43" customFormat="1" ht="55.2">
+      <c r="A22" s="44">
         <v>18</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A23" s="48">
+      <c r="E22" s="48"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A23" s="44">
         <v>19</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A24" s="48">
+      <c r="E23" s="48"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A24" s="44">
         <v>20</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A25" s="48">
+      <c r="E24" s="48"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A25" s="44">
         <v>21</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A26" s="48">
+      <c r="E25" s="48"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A26" s="44">
         <v>22</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A27" s="62">
+      <c r="E26" s="48"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A27" s="58">
         <v>23</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="47" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A28" s="48">
+    <row r="28" spans="1:6" s="43" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A28" s="44">
         <v>23</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="1:6" s="47" customFormat="1" ht="55.2">
-      <c r="A29" s="48">
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="1:6" s="43" customFormat="1" ht="55.2">
+      <c r="A29" s="44">
         <v>24</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A30" s="48">
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A30" s="44">
         <v>25</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="46"/>
-    </row>
-    <row r="31" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A31" s="48">
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A31" s="44">
         <v>26</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="46"/>
-    </row>
-    <row r="32" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A32" s="48">
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A32" s="44">
         <v>27</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A33" s="48">
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A33" s="44">
         <v>28</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A34" s="48">
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A34" s="44">
         <v>29</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A35" s="48">
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A35" s="44">
         <v>30</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" spans="1:6" s="47" customFormat="1" ht="138">
-      <c r="A36" s="48">
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" s="43" customFormat="1" ht="138">
+      <c r="A36" s="44">
         <v>31</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="69" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A37" s="48">
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A37" s="44">
         <v>32</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="46"/>
-    </row>
-    <row r="38" spans="1:6" s="47" customFormat="1" ht="41.4">
-      <c r="A38" s="48">
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6" s="43" customFormat="1" ht="41.4">
+      <c r="A38" s="44">
         <v>33</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="71" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A39" s="48">
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A39" s="44">
         <v>34</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A40" s="48">
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A40" s="44">
         <v>35</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A41" s="48">
+      <c r="E40" s="48"/>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="41" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A41" s="44">
         <v>36</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="51" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="67" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A42" s="48">
+    <row r="42" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A42" s="44">
         <v>37</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="46"/>
-    </row>
-    <row r="43" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A43" s="48">
+      <c r="C42" s="66"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A43" s="44">
         <v>38</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="46"/>
-    </row>
-    <row r="44" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A44" s="72">
+      <c r="C43" s="66"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A44" s="68">
         <v>39</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="59" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="47" customFormat="1" ht="41.4">
-      <c r="A45" s="72">
+    <row r="45" spans="1:6" s="43" customFormat="1" ht="41.4">
+      <c r="A45" s="68">
         <v>40</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="73" t="s">
+      <c r="D45" s="55"/>
+      <c r="E45" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="47" customFormat="1" ht="13.8">
-      <c r="A46" s="72">
+    <row r="46" spans="1:6" s="43" customFormat="1" ht="13.8">
+      <c r="A46" s="68">
         <v>41</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="D46" s="55"/>
+      <c r="E46" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="47" customFormat="1" ht="27.6">
-      <c r="A47" s="72">
+    <row r="47" spans="1:6" s="43" customFormat="1" ht="27.6">
+      <c r="A47" s="68">
         <v>42</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="59" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="47" customFormat="1" ht="69">
-      <c r="A48" s="72">
+    <row r="48" spans="1:6" s="43" customFormat="1" ht="69">
+      <c r="A48" s="68">
         <v>43</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="74" t="s">
+      <c r="D48" s="55"/>
+      <c r="E48" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="47" customFormat="1" ht="55.2">
-      <c r="A49" s="72">
+    <row r="49" spans="1:8" s="43" customFormat="1" ht="55.2">
+      <c r="A49" s="68">
         <v>44</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="E49" s="74" t="s">
+      <c r="E49" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="62" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.8">
-      <c r="A50" s="72">
+      <c r="A50" s="68">
         <v>45</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="62" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="82.8">
-      <c r="A51" s="72">
+      <c r="A51" s="68">
         <v>46</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="76" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="66" t="s">
+      <c r="F51" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="47" customFormat="1" ht="27.6">
-      <c r="A52" s="72">
+    <row r="52" spans="1:8" s="43" customFormat="1" ht="27.6">
+      <c r="A52" s="68">
         <v>47</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="73" t="s">
+      <c r="D52" s="55"/>
+      <c r="E52" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="F52" s="66" t="s">
+      <c r="F52" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="53" spans="1:8" s="47" customFormat="1" ht="27.6">
-      <c r="A53" s="72">
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="1:8" s="43" customFormat="1" ht="27.6">
+      <c r="A53" s="68">
         <v>48</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="76" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="66" t="s">
+      <c r="F53" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-    </row>
-    <row r="54" spans="1:8" s="47" customFormat="1" ht="27.6">
-      <c r="A54" s="72">
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:8" s="43" customFormat="1" ht="27.6">
+      <c r="A54" s="68">
         <v>49</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="76" t="s">
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="F54" s="66" t="s">
+      <c r="F54" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-    </row>
-    <row r="55" spans="1:8" s="47" customFormat="1" ht="27.6">
-      <c r="A55" s="72">
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:8" s="43" customFormat="1" ht="27.6">
+      <c r="A55" s="68">
         <v>50</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="76" t="s">
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="F55" s="66" t="s">
+      <c r="F55" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-    </row>
-    <row r="56" spans="1:8" s="47" customFormat="1" ht="27.6">
-      <c r="A56" s="72">
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8" s="43" customFormat="1" ht="27.6">
+      <c r="A56" s="68">
         <v>51</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="76" t="s">
+      <c r="D56" s="57"/>
+      <c r="E56" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="47" customFormat="1" ht="27.6">
-      <c r="A57" s="72">
+    <row r="57" spans="1:8" s="43" customFormat="1" ht="27.6">
+      <c r="A57" s="68">
         <v>52</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="76" t="s">
+      <c r="C57" s="53"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="F57" s="66" t="s">
+      <c r="F57" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="47" customFormat="1" ht="27.6">
-      <c r="A58" s="72">
+    <row r="58" spans="1:8" s="43" customFormat="1" ht="27.6">
+      <c r="A58" s="68">
         <v>53</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="76" t="s">
+      <c r="C58" s="54"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="47" customFormat="1" ht="55.2">
-      <c r="A59" s="72">
+    <row r="59" spans="1:8" s="43" customFormat="1" ht="55.2">
+      <c r="A59" s="68">
         <v>54</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="76" t="s">
+      <c r="C59" s="54"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F59" s="66" t="s">
+      <c r="F59" s="62" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6567,1691 +6515,1691 @@
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="5" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="64.21875" style="79" customWidth="1"/>
-    <col min="9" max="16384" width="72.88671875" style="4"/>
+    <col min="8" max="8" width="64.21875" style="75" customWidth="1"/>
+    <col min="9" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="78" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="74" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="74" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
-      <c r="A9" s="21">
+    <row r="9" spans="1:8" s="6" customFormat="1">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>6</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="80" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="76" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
-      <c r="A10" s="21">
+    <row r="10" spans="1:8" s="6" customFormat="1">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>7</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="80" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="76" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="80" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="76" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>3</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="80" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="76" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>7</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="79" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="75" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>3</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="80" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="76" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>8</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="79" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="75" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.4">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="75" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>8</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="H17" s="79" t="s">
+      <c r="H17" s="75" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>8</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="80" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="76" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1">
-      <c r="A19" s="21">
+    <row r="19" spans="1:8">
+      <c r="A19" s="19">
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="19">
         <v>8</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="79" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="75" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>8</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="80" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="76" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>16</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="75" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>16</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>2</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="80" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="76" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>16</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="19">
         <v>2</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="79" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="75" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="21">
+      <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>16</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>2</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="80" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="76" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45">
-      <c r="A25" s="21">
+      <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>16</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>2</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="79" t="s">
+      <c r="H25" s="75" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60">
-      <c r="A26" s="21">
+      <c r="A26" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>16</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="82" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="77" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="64.8">
-      <c r="A27" s="21">
+      <c r="A27" s="19">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>6</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>4</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="H27" s="76" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="21">
+      <c r="A28" s="19">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>3</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="76" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="21">
+      <c r="A29" s="19">
         <v>21</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>8</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="25" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="80" t="s">
+      <c r="H29" s="76" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="21">
+      <c r="A30" s="19">
         <v>22</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>8</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="76" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="21">
+      <c r="A31" s="19">
         <v>23</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>16</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
         <v>2</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="76" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4">
-      <c r="A32" s="21">
+      <c r="A32" s="19">
         <v>24</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>3</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="79" t="s">
+      <c r="H32" s="75" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="64.8">
-      <c r="A33" s="21">
+      <c r="A33" s="19">
         <v>25</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>8</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <v>6</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H33" s="79" t="s">
+      <c r="H33" s="75" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="210">
-      <c r="A34" s="21">
+      <c r="A34" s="19">
         <v>26</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>1</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="H34" s="79" t="s">
+      <c r="H34" s="75" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="180">
-      <c r="A35" s="21">
+      <c r="A35" s="19">
         <v>27</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="79" t="s">
+      <c r="H35" s="75" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="81">
-      <c r="A36" s="21">
+      <c r="A36" s="19">
         <v>28</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>2</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="17" t="s">
+      <c r="F36" s="19"/>
+      <c r="G36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="75" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="81">
-      <c r="A37" s="21">
+      <c r="A37" s="19">
         <v>29</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <v>2</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="19"/>
+      <c r="G37" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="79" t="s">
+      <c r="H37" s="75" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="21">
+      <c r="A38" s="19">
         <v>30</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>6</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="79" t="s">
+      <c r="F38" s="19"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="75" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="21">
+      <c r="A39" s="19">
         <v>31</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>2</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="19"/>
+      <c r="G39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="79" t="s">
+      <c r="H39" s="75" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="162">
-      <c r="A40" s="21">
+    <row r="40" spans="1:8" ht="162">
+      <c r="A40" s="19">
         <v>32</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="19">
         <v>1</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="19"/>
+      <c r="G40" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="75" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="21">
+      <c r="A41" s="19">
         <v>33</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <v>2</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="79" t="s">
+      <c r="F41" s="19"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="75" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="81">
-      <c r="A42" s="21">
+      <c r="A42" s="19">
         <v>34</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>1</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="19"/>
+      <c r="G42" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="75" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="75">
-      <c r="A43" s="21">
+    <row r="43" spans="1:8" ht="75">
+      <c r="A43" s="19">
         <v>35</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="19">
         <v>1</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="81" t="s">
+      <c r="F43" s="19"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="75" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="32.4">
-      <c r="A44" s="21">
+    <row r="44" spans="1:8" ht="32.4">
+      <c r="A44" s="19">
         <v>36</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="19">
         <v>1</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="18" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="75" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="105">
-      <c r="A45" s="21">
+    <row r="45" spans="1:8" ht="105">
+      <c r="A45" s="19">
         <v>37</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="19">
         <v>16</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="19">
         <v>2</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="81" t="s">
+      <c r="G45" s="16"/>
+      <c r="H45" s="75" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="21">
+      <c r="A46" s="19">
         <v>38</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>8</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="79" t="s">
+      <c r="F46" s="19"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="75" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="21">
+      <c r="A47" s="19">
         <v>39</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
         <v>3</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="79" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="75" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="21">
+      <c r="A48" s="19">
         <v>40</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="19">
         <v>16</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="19">
         <v>2</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="79" t="s">
+      <c r="G48" s="16"/>
+      <c r="H48" s="75" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="48.6">
-      <c r="A49" s="21">
+      <c r="A49" s="19">
         <v>41</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="19">
         <v>1</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="19"/>
+      <c r="G49" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H49" s="79" t="s">
+      <c r="H49" s="75" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="21">
+      <c r="A50" s="19">
         <v>42</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="19">
         <v>1</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="17" t="s">
+      <c r="F50" s="19"/>
+      <c r="G50" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="H50" s="79" t="s">
+      <c r="H50" s="75" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="21">
+      <c r="A51" s="19">
         <v>43</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="19">
         <v>1</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="19"/>
+      <c r="G51" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="H51" s="79" t="s">
+      <c r="H51" s="75" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="90">
-      <c r="A52" s="21">
+      <c r="A52" s="19">
         <v>44</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
         <v>1</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="17" t="s">
+      <c r="F52" s="19"/>
+      <c r="G52" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="79" t="s">
+      <c r="H52" s="75" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="21">
+      <c r="A53" s="19">
         <v>45</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="19">
         <v>16</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="19">
         <v>2</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="79" t="s">
+      <c r="G53" s="16"/>
+      <c r="H53" s="75" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="21">
+      <c r="A54" s="19">
         <v>46</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="19">
         <v>4</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="17" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="H54" s="79" t="s">
+      <c r="H54" s="75" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="21">
+      <c r="A55" s="19">
         <v>47</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="19">
         <v>8</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>5</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="16">
         <v>1</v>
       </c>
-      <c r="H55" s="79" t="s">
+      <c r="H55" s="75" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="21">
+      <c r="A56" s="19">
         <v>48</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="19">
         <v>16</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>2</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="79" t="s">
+      <c r="G56" s="16"/>
+      <c r="H56" s="75" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="21">
+      <c r="A57" s="19">
         <v>49</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="19">
         <v>16</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="19">
         <v>2</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="79" t="s">
+      <c r="G57" s="16"/>
+      <c r="H57" s="75" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="21">
+      <c r="A58" s="19">
         <v>50</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>16</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>2</v>
       </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="79" t="s">
+      <c r="G58" s="16"/>
+      <c r="H58" s="75" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="21">
+      <c r="A59" s="19">
         <v>51</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <v>16</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>2</v>
       </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="79" t="s">
+      <c r="G59" s="16"/>
+      <c r="H59" s="75" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="21">
+      <c r="A60" s="19">
         <v>52</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="19">
         <v>16</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="19">
         <v>2</v>
       </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="79" t="s">
+      <c r="G60" s="16"/>
+      <c r="H60" s="75" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="21">
+      <c r="A61" s="19">
         <v>53</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="19">
         <v>16</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="19">
         <v>2</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="79" t="s">
+      <c r="G61" s="16"/>
+      <c r="H61" s="75" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="21">
+      <c r="A62" s="19">
         <v>54</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="19">
         <v>16</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="19">
         <v>2</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="79" t="s">
+      <c r="G62" s="16"/>
+      <c r="H62" s="75" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="21">
+      <c r="A63" s="19">
         <v>55</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="19">
         <v>16</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="19">
         <v>2</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="79" t="s">
+      <c r="G63" s="16"/>
+      <c r="H63" s="75" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="21">
+      <c r="A64" s="19">
         <v>56</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="17"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="21">
+      <c r="A65" s="19">
         <v>57</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="19">
         <v>6</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="17"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="21">
+      <c r="A66" s="19">
         <v>58</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="17"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="21">
+      <c r="A67" s="19">
         <v>59</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="19">
         <v>6</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="17"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="17"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="17"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="17"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="17"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="17"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="17"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="17"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="16"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="17"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="17"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="17"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="17"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="17"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="17"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="17"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="17"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="17"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="17"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="16"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="17"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="17"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="17"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="17"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="17"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="17"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="16"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="17"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="17"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="17"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="17"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="17"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="17"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="16"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="17"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="17"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="16"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="17"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="17"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="16"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="17"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="17"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="16"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="17"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="17"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="16"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="17"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="17"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="16"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="17"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="17"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8279,72 +8227,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="151.21875" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="32.4">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="73" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="73" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="64.8">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="73" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="48.6">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="73" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="48.6">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="73" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="32.4">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="73" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="32.4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="73" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="73" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="129.6">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="73" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="97.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="73" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="77"/>
+      <c r="A14" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
